--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nane:</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Jakaria Pervez</t>
+  </si>
+  <si>
+    <t>Masum</t>
+  </si>
+  <si>
+    <t>Created worklist for daily task</t>
+  </si>
+  <si>
+    <t>Signed Drawing PW</t>
   </si>
 </sst>
 </file>
@@ -73,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -96,14 +105,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,12 +468,26 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\All Design\Designs_All\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,18 +426,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -453,7 +453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -475,7 +475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>11</v>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\All Design\Designs_All\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Nane:</t>
   </si>
@@ -60,6 +60,33 @@
   </si>
   <si>
     <t>Signed Drawing PW</t>
+  </si>
+  <si>
+    <t>14/12/2022</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>16/12/2024</t>
+  </si>
+  <si>
+    <t>18/12/2025</t>
+  </si>
+  <si>
+    <t>19/12/2026</t>
+  </si>
+  <si>
+    <t>20/12/2027</t>
+  </si>
+  <si>
+    <t>21/12/2028</t>
+  </si>
+  <si>
+    <t>22/12/2028</t>
+  </si>
+  <si>
+    <t>Design of Drawing PW</t>
   </si>
 </sst>
 </file>
@@ -82,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,44 +132,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,20 +422,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -453,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -464,7 +462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -475,8 +473,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -484,10 +484,64 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\All Design\Designs_All\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,14 +428,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -451,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -473,7 +473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -484,42 +484,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -530,7 +530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -424,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\All Design\Designs_All\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Nane:</t>
   </si>
@@ -87,6 +87,33 @@
   </si>
   <si>
     <t>Design of Drawing PW</t>
+  </si>
+  <si>
+    <t>22/12/2029</t>
+  </si>
+  <si>
+    <t>22/12/2030</t>
+  </si>
+  <si>
+    <t>22/12/2031</t>
+  </si>
+  <si>
+    <t>22/12/2032</t>
+  </si>
+  <si>
+    <t>22/12/2033</t>
+  </si>
+  <si>
+    <t>22/12/2034</t>
+  </si>
+  <si>
+    <t>29/12/2035</t>
+  </si>
+  <si>
+    <t>Map, Stilling Basin</t>
+  </si>
+  <si>
+    <t>Istiaq, Jakaria</t>
   </si>
 </sst>
 </file>
@@ -422,20 +449,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -451,7 +478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -462,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -473,7 +500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -484,42 +511,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -530,7 +557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -539,6 +566,47 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\All Design\Designs_All\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Nane:</t>
   </si>
@@ -110,10 +110,16 @@
     <t>29/12/2035</t>
   </si>
   <si>
-    <t>Map, Stilling Basin</t>
-  </si>
-  <si>
-    <t>Istiaq, Jakaria</t>
+    <t>Stilling Basin</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Jakaria</t>
+  </si>
+  <si>
+    <t>Istiaq</t>
   </si>
 </sst>
 </file>
@@ -163,11 +169,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,20 +458,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -478,135 +487,158 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
+      <c r="C20" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\All Design\Designs_All\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Nane:</t>
   </si>
@@ -65,51 +65,9 @@
     <t>14/12/2022</t>
   </si>
   <si>
-    <t>15/12/2023</t>
-  </si>
-  <si>
-    <t>16/12/2024</t>
-  </si>
-  <si>
-    <t>18/12/2025</t>
-  </si>
-  <si>
-    <t>19/12/2026</t>
-  </si>
-  <si>
-    <t>20/12/2027</t>
-  </si>
-  <si>
-    <t>21/12/2028</t>
-  </si>
-  <si>
-    <t>22/12/2028</t>
-  </si>
-  <si>
     <t>Design of Drawing PW</t>
   </si>
   <si>
-    <t>22/12/2029</t>
-  </si>
-  <si>
-    <t>22/12/2030</t>
-  </si>
-  <si>
-    <t>22/12/2031</t>
-  </si>
-  <si>
-    <t>22/12/2032</t>
-  </si>
-  <si>
-    <t>22/12/2033</t>
-  </si>
-  <si>
-    <t>22/12/2034</t>
-  </si>
-  <si>
-    <t>29/12/2035</t>
-  </si>
-  <si>
     <t>Stilling Basin</t>
   </si>
   <si>
@@ -120,6 +78,39 @@
   </si>
   <si>
     <t>Istiaq</t>
+  </si>
+  <si>
+    <t>15/12/2022</t>
+  </si>
+  <si>
+    <t>16/12/2022</t>
+  </si>
+  <si>
+    <t>18/12/2022</t>
+  </si>
+  <si>
+    <t>19/12/2022</t>
+  </si>
+  <si>
+    <t>20/12/2022</t>
+  </si>
+  <si>
+    <t>21/12/2022</t>
+  </si>
+  <si>
+    <t>22/12/2022</t>
+  </si>
+  <si>
+    <t>22/12/202</t>
+  </si>
+  <si>
+    <t>29/12/2022</t>
+  </si>
+  <si>
+    <t>Drawing of Gabura regulator sent</t>
+  </si>
+  <si>
+    <t>Modified drawing of kulutia sent</t>
   </si>
 </sst>
 </file>
@@ -169,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -177,6 +168,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,20 +452,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -487,7 +481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -498,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -509,7 +503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -520,55 +514,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -577,68 +571,97 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>44986</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>30</v>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Nane:</t>
   </si>
@@ -107,10 +107,13 @@
     <t>29/12/2022</t>
   </si>
   <si>
-    <t>Drawing of Gabura regulator sent</t>
-  </si>
-  <si>
     <t>Modified drawing of kulutia sent</t>
+  </si>
+  <si>
+    <t>Drawing of Gabura regulator sent, Revised Protective Wok</t>
+  </si>
+  <si>
+    <t>Jakaria, Masum</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -171,6 +174,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +467,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -647,21 +653,21 @@
         <v>44958</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44986</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
+      <c r="B23" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\All Design\Designs_All\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Nane:</t>
   </si>
@@ -110,10 +110,10 @@
     <t>Modified drawing of kulutia sent</t>
   </si>
   <si>
-    <t>Drawing of Gabura regulator sent, Revised Protective Wok</t>
-  </si>
-  <si>
-    <t>Jakaria, Masum</t>
+    <t>Drawing of Gabura regulator sent</t>
+  </si>
+  <si>
+    <t>Revised Protective Work</t>
   </si>
 </sst>
 </file>
@@ -163,20 +163,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,216 +461,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>44927</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>44958</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>44986</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>44987</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\All Design\Designs_All\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Nane:</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Revised Protective Work</t>
+  </si>
+  <si>
+    <t>Starting to Calculate Pile capacity for stability check for 9 no Sora and Chakbara regulator</t>
   </si>
 </sst>
 </file>
@@ -461,20 +464,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -483,7 +486,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -492,7 +495,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -503,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -514,7 +517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -525,42 +528,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -571,7 +574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -582,49 +585,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -635,7 +638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -646,14 +649,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44927</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44958</v>
       </c>
@@ -664,7 +667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44986</v>
       </c>
@@ -675,14 +678,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>44987</v>
-      </c>
-      <c r="B24" s="4" t="s">
+        <v>44986</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>45017</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\All Design\Designs_All\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All2\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Nane:</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Starting to Calculate Pile capacity for stability check for 9 no Sora and Chakbara regulator</t>
+  </si>
+  <si>
+    <t>Weekly Holiday</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -464,20 +470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -486,7 +492,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -495,7 +501,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -506,7 +512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -517,7 +523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -528,42 +534,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -574,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -585,49 +591,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -638,7 +644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -649,14 +655,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>44927</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>44958</v>
       </c>
@@ -667,7 +673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>44986</v>
       </c>
@@ -678,7 +684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>44986</v>
       </c>
@@ -689,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>45017</v>
       </c>
@@ -699,6 +705,42 @@
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>45047</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>45078</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>45108</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>45139</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All2\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dsign_All\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Nane:</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>15/1/2023</t>
+  </si>
+  <si>
+    <t>13/1/2023</t>
+  </si>
+  <si>
+    <t>14/1/2023</t>
+  </si>
+  <si>
+    <t>HECRAS Learning-Day 1</t>
   </si>
 </sst>
 </file>
@@ -470,20 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -492,7 +504,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -501,7 +513,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -512,7 +524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -523,7 +535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -534,42 +546,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -580,7 +592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -591,49 +603,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -644,7 +656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -655,14 +667,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44927</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44958</v>
       </c>
@@ -673,7 +685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44986</v>
       </c>
@@ -684,7 +696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44986</v>
       </c>
@@ -695,7 +707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>45017</v>
       </c>
@@ -706,14 +718,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>45047</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>45078</v>
       </c>
@@ -724,7 +736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>45108</v>
       </c>
@@ -735,12 +747,65 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>45139</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>45170</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>45200</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>45231</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>45261</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dsign_All\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All2\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,18 +484,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -504,7 +504,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -513,7 +513,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,7 +524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -535,7 +535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -546,42 +546,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -592,7 +592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -603,49 +603,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -656,7 +656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -667,14 +667,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>44927</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>44958</v>
       </c>
@@ -685,7 +685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>44986</v>
       </c>
@@ -696,7 +696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>44986</v>
       </c>
@@ -707,7 +707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>45017</v>
       </c>
@@ -718,14 +718,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>45047</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>45078</v>
       </c>
@@ -736,7 +736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>45108</v>
       </c>
@@ -747,60 +747,60 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>45139</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>45170</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>45200</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>45231</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>45261</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="2" t="s">

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All2\AE Sakib\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Nane:</t>
   </si>
@@ -135,12 +130,18 @@
   </si>
   <si>
     <t>HECRAS Learning-Day 1</t>
+  </si>
+  <si>
+    <t>strat_hour</t>
+  </si>
+  <si>
+    <t>finish_hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -297,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -474,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -482,20 +483,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -503,8 +506,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -512,8 +517,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -521,289 +528,361 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44927</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44958</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44986</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44986</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>45017</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>45047</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>45078</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>45108</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>45139</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>45170</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>45200</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>45231</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>45261</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dsign_All\AE Sakib\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Nane:</t>
   </si>
@@ -136,12 +141,18 @@
   </si>
   <si>
     <t>finish_hour</t>
+  </si>
+  <si>
+    <t>16/1/2023</t>
+  </si>
+  <si>
+    <t>Bought Stationary from Nilkhet, Preparation for Bridge Design</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -202,6 +213,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -483,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,6 +900,19 @@
         <v>16</v>
       </c>
     </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dsign_All\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All2\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
     <t>16/1/2023</t>
   </si>
   <si>
-    <t>Bought Stationary from Nilkhet, Preparation for Bridge Design</t>
+    <t>Bought Design Pad, Preparation for Bridge Design</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -213,9 +213,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -277,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -312,7 +309,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -500,19 +497,19 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -523,7 +520,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -534,7 +531,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -551,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -564,7 +561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -577,7 +574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -586,7 +583,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -595,7 +592,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -604,7 +601,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -613,7 +610,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -622,7 +619,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -635,7 +632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -648,7 +645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -657,7 +654,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -666,7 +663,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -675,7 +672,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -684,7 +681,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -693,7 +690,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -702,7 +699,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -715,7 +712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -728,7 +725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>44927</v>
       </c>
@@ -737,7 +734,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>44958</v>
       </c>
@@ -750,7 +747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>44986</v>
       </c>
@@ -763,7 +760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>44986</v>
       </c>
@@ -776,7 +773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>45017</v>
       </c>
@@ -789,7 +786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>45047</v>
       </c>
@@ -798,7 +795,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>45078</v>
       </c>
@@ -811,7 +808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>45108</v>
       </c>
@@ -824,7 +821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>45139</v>
       </c>
@@ -833,7 +830,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>45170</v>
       </c>
@@ -842,7 +839,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>45200</v>
       </c>
@@ -851,7 +848,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>45231</v>
       </c>
@@ -860,7 +857,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>45261</v>
       </c>
@@ -869,7 +866,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -878,7 +875,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -887,7 +884,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -900,11 +897,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="1"/>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All2\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dsign_All\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Nane:</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>Bought Design Pad, Preparation for Bridge Design</t>
+  </si>
+  <si>
+    <t>17/1/2023</t>
+  </si>
+  <si>
+    <t>18/1/2023</t>
+  </si>
+  <si>
+    <t>Learning HECRAS, RIVER C/S drawn</t>
   </si>
 </sst>
 </file>
@@ -494,22 +503,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="43.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -520,7 +529,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -531,7 +540,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -548,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -561,7 +570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -574,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -583,7 +592,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -592,7 +601,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -601,7 +610,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -610,7 +619,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -619,7 +628,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -632,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -645,7 +654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -654,7 +663,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -663,7 +672,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -672,7 +681,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -681,7 +690,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -690,7 +699,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -699,7 +708,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -712,7 +721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -725,7 +734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44927</v>
       </c>
@@ -734,7 +743,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44958</v>
       </c>
@@ -747,7 +756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44986</v>
       </c>
@@ -760,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44986</v>
       </c>
@@ -773,7 +782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>45017</v>
       </c>
@@ -786,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>45047</v>
       </c>
@@ -795,7 +804,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>45078</v>
       </c>
@@ -808,7 +817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>45108</v>
       </c>
@@ -821,7 +830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>45139</v>
       </c>
@@ -830,7 +839,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>45170</v>
       </c>
@@ -839,7 +848,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>45200</v>
       </c>
@@ -848,7 +857,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>45231</v>
       </c>
@@ -857,7 +866,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>45261</v>
       </c>
@@ -866,7 +875,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -875,7 +884,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -884,7 +893,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -897,7 +906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>39</v>
       </c>
@@ -910,6 +919,28 @@
         <v>16</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dsign_All\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All2\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,20 +505,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -529,7 +529,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -540,7 +540,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -557,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -570,7 +570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -583,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -592,7 +592,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -601,7 +601,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -610,7 +610,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -654,7 +654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -672,7 +672,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -681,7 +681,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -699,7 +699,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -721,7 +721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -734,7 +734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>44927</v>
       </c>
@@ -743,7 +743,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>44958</v>
       </c>
@@ -756,7 +756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>44986</v>
       </c>
@@ -769,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>44986</v>
       </c>
@@ -782,7 +782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>45017</v>
       </c>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>45047</v>
       </c>
@@ -804,7 +804,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>45078</v>
       </c>
@@ -817,7 +817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>45108</v>
       </c>
@@ -830,7 +830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>45139</v>
       </c>
@@ -839,7 +839,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>45170</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>45200</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>45231</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>45261</v>
       </c>
@@ -875,7 +875,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -884,7 +884,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -906,7 +906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>39</v>
       </c>
@@ -919,7 +919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>41</v>
       </c>
@@ -928,7 +928,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>42</v>
       </c>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -506,7 +506,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All2\AE Sakib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dsign_All\AE Sakib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Nane:</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Learning HECRAS, RIVER C/S drawn</t>
+  </si>
+  <si>
+    <t>Progress Report</t>
+  </si>
+  <si>
+    <t>SE Sir</t>
   </si>
 </sst>
 </file>
@@ -503,22 +509,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="43.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -529,7 +535,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -540,7 +546,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -557,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -570,7 +576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -583,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -592,7 +598,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -601,7 +607,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -610,7 +616,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -619,7 +625,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -628,7 +634,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -641,7 +647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -654,7 +660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -663,7 +669,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -672,7 +678,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -681,7 +687,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
@@ -690,7 +696,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -699,7 +705,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -708,7 +714,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -721,7 +727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -734,7 +740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44927</v>
       </c>
@@ -743,7 +749,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44958</v>
       </c>
@@ -756,7 +762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44986</v>
       </c>
@@ -769,7 +775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44986</v>
       </c>
@@ -782,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>45017</v>
       </c>
@@ -795,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>45047</v>
       </c>
@@ -804,7 +810,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>45078</v>
       </c>
@@ -817,7 +823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>45108</v>
       </c>
@@ -830,7 +836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>45139</v>
       </c>
@@ -839,7 +845,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>45170</v>
       </c>
@@ -848,7 +854,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>45200</v>
       </c>
@@ -857,7 +863,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>45231</v>
       </c>
@@ -866,7 +872,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>45261</v>
       </c>
@@ -875,7 +881,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -884,7 +890,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -893,7 +899,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>33</v>
       </c>
@@ -906,7 +912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>39</v>
       </c>
@@ -919,7 +925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>41</v>
       </c>
@@ -928,7 +934,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>42</v>
       </c>
@@ -941,6 +947,19 @@
         <v>16</v>
       </c>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Nane:</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>SE Sir</t>
+  </si>
+  <si>
+    <t>25/1/2023</t>
+  </si>
+  <si>
+    <t>24/1/2023</t>
   </si>
 </sst>
 </file>
@@ -509,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +955,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -960,6 +966,19 @@
         <v>45</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Nane:</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>24/1/2023</t>
+  </si>
+  <si>
+    <t>26/1/2023</t>
+  </si>
+  <si>
+    <t>Progress Report, Regulator, HECRAS</t>
+  </si>
+  <si>
+    <t>SE Sir, Jakaria Sir</t>
+  </si>
+  <si>
+    <t>Jakaria Sir</t>
   </si>
 </sst>
 </file>
@@ -515,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +962,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,6 +991,19 @@
         <v>45</v>
       </c>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Nane:</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>Jakaria Sir</t>
+  </si>
+  <si>
+    <t>31/1/2023</t>
+  </si>
+  <si>
+    <t>Progress Report, Regulator</t>
   </si>
 </sst>
 </file>
@@ -202,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -225,11 +231,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -245,6 +262,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,6 +1024,19 @@
         <v>50</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>Nane:</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Progress Report, Regulator</t>
+  </si>
+  <si>
+    <t>Sand drain</t>
+  </si>
+  <si>
+    <t>Jibon Sir,Jakaria Sir</t>
   </si>
 </sst>
 </file>
@@ -208,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -231,22 +237,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -262,9 +257,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1017,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1037,6 +1029,19 @@
         <v>50</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>45262</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>Nane:</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Jibon Sir,Jakaria Sir</t>
+  </si>
+  <si>
+    <t>13/2/2023</t>
+  </si>
+  <si>
+    <t>PW Bagerhat</t>
   </si>
 </sst>
 </file>
@@ -539,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,6 +1048,19 @@
         <v>55</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>Nane:</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>PW Bagerhat</t>
+  </si>
+  <si>
+    <t>Regulator Chadnimukha</t>
   </si>
 </sst>
 </file>
@@ -545,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,6 +1064,19 @@
         <v>51</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Nane:</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Regulator Chadnimukha</t>
+  </si>
+  <si>
+    <t>Foundation design</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,6 +1080,19 @@
         <v>51</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>45050</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>Nane:</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>Foundation design</t>
+  </si>
+  <si>
+    <t>28/03/2023</t>
+  </si>
+  <si>
+    <t>Technical Report on soil improvement of Chadnimukha Regulator</t>
   </si>
 </sst>
 </file>
@@ -551,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,6 +1099,19 @@
         <v>51</v>
       </c>
     </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AE Sakib/Daily Work Progress.xlsx
+++ b/AE Sakib/Daily Work Progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Nane:</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Technical Report on soil improvement of Chadnimukha Regulator</t>
+  </si>
+  <si>
+    <t>29/03/2023</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,6 +1115,19 @@
         <v>51</v>
       </c>
     </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
